--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2964853.098537515</v>
+        <v>2957836.083645805</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -661,10 +661,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>169.3575929423584</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>150.8400357509149</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>163.4435927426897</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>25.31590541686196</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -910,10 +910,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>311.4936872159398</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>338.2584895448977</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1056,25 +1056,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>84.45262105857526</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>127.8224738943862</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481165</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>270.7773459850742</v>
       </c>
       <c r="Y8" t="n">
-        <v>275.1871530868444</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>127.6504990521113</v>
+        <v>163.0793702451207</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1299,13 +1299,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491427</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1581,22 +1581,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U13" t="n">
-        <v>169.0440663885753</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710089</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1703,10 +1703,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H15" t="n">
-        <v>94.98542483262919</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.9013320701444</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T15" t="n">
         <v>192.9654699154601</v>
@@ -1770,13 +1770,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>66.11129743588477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274225</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T18" t="n">
         <v>192.9654699154601</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>127.9032618964208</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>205.007482405516</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174145</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>24.40666873704819</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>139.1537278750042</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>97.68220893233247</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634821</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -2769,19 +2769,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>146.1854691670918</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>180.6645312963703</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0785952498017</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2952,19 +2952,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3012,10 +3012,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>171.2255767602205</v>
+        <v>6.900170146390741</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>157.2425576766698</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3435,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>22.58147825544611</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3483,13 +3483,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3720,16 +3720,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404424</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>204.1291651532058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>14.73664328357105</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>57.64843562452451</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1920.409918978289</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C2" t="n">
-        <v>1920.409918978289</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4357,25 +4357,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W2" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="X2" t="n">
-        <v>2697.149091018222</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y2" t="n">
-        <v>2307.009759042411</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2489.929004554789</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="C4" t="n">
-        <v>2320.992821626882</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D4" t="n">
-        <v>2170.876182214546</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>2022.963088632153</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>2697.149091018222</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>2697.149091018222</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U4" t="n">
-        <v>2697.149091018222</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V4" t="n">
-        <v>2697.149091018222</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W4" t="n">
-        <v>2697.149091018222</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X4" t="n">
-        <v>2697.149091018222</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="Y4" t="n">
-        <v>2671.577469385029</v>
+        <v>513.8405610245969</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2310.5492509541</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C5" t="n">
-        <v>1941.586734013689</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>1583.321035406938</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>1197.532782808694</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>786.5468780190865</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>368.5830699172734</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4606,13 +4606,13 @@
         <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018222</v>
+        <v>2355.473849053679</v>
       </c>
       <c r="X5" t="n">
-        <v>2697.149091018222</v>
+        <v>1982.008090792599</v>
       </c>
       <c r="Y5" t="n">
-        <v>2697.149091018222</v>
+        <v>1591.868758816787</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>351.9927747426009</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>183.056591814694</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D7" t="n">
-        <v>183.056591814694</v>
+        <v>642.8233063694895</v>
       </c>
       <c r="E7" t="n">
-        <v>183.056591814694</v>
+        <v>494.9102127870964</v>
       </c>
       <c r="F7" t="n">
-        <v>183.056591814694</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4749,28 +4749,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>351.9927747426009</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>351.9927747426009</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1595.875667274027</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1595.875667274027</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1595.875667274027</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862887</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834949</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834949</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V8" t="n">
-        <v>2247.308246834949</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="W8" t="n">
-        <v>2247.308246834949</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="X8" t="n">
-        <v>1873.84248857387</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>1595.875667274027</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4874,25 +4874,25 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598707</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>200.8329293182748</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="C10" t="n">
-        <v>200.8329293182748</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="D10" t="n">
-        <v>200.8329293182748</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036447</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036447</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036447</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036447</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600566</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942406</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942406</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>550.5654064942406</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>550.5654064942406</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>550.5654064942406</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>550.5654064942406</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>550.5654064942406</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>329.7728273507105</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5026,25 +5026,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5083,10 +5083,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1908.095276920732</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2187.63534213943</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2392.657822921639</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,10 +5175,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
         <v>97.21709146028584</v>
@@ -5229,22 +5229,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U13" t="n">
-        <v>904.4592630522783</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V13" t="n">
-        <v>649.7747748463914</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W13" t="n">
-        <v>649.7747748463914</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>649.7747748463914</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y13" t="n">
-        <v>428.9821957028613</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5269,61 +5269,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5345,7 +5345,7 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
         <v>221.3451287358148</v>
@@ -5354,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126483</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571612</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636255</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.37645130762</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526318</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.6713633309776</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C16" t="n">
-        <v>653.6713633309776</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D16" t="n">
-        <v>503.5547239186419</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473456</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473456</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1009.867621687014</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V16" t="n">
-        <v>1009.867621687014</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W16" t="n">
-        <v>720.4504516500531</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X16" t="n">
-        <v>720.4504516500531</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y16" t="n">
-        <v>653.6713633309776</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805485</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822478</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823788</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5591,25 +5591,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>412.6079778147083</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>891.4406401619849</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>416.2699138005286</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C19" t="n">
-        <v>247.3337308726216</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1369.721056521114</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U19" t="n">
-        <v>1080.592417734673</v>
+        <v>980.8428919792032</v>
       </c>
       <c r="V19" t="n">
-        <v>825.9079295287856</v>
+        <v>726.1584037733163</v>
       </c>
       <c r="W19" t="n">
-        <v>825.9079295287856</v>
+        <v>436.7412337363557</v>
       </c>
       <c r="X19" t="n">
-        <v>597.9183786307683</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="Y19" t="n">
-        <v>597.9183786307683</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5737,25 +5737,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514089</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5773,31 +5773,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5828,25 +5828,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571611</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636253</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526317</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>413.0432218861032</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>244.1070389581963</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>244.1070389581963</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581963</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557903</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>955.1031435655742</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>665.6859735286137</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>437.6964226305963</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>413.0432218861032</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5980,34 +5980,34 @@
         <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822466</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6056,37 +6056,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
         <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1736.59991596447</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>2016.139981183167</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>563.4221461351941</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>563.4221461351941</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>265.3924131404653</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404653</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
         <v>507.4972331799365</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1387.841167119728</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>1387.841167119728</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>1133.156678913841</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>843.7395088768808</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>745.0706109654338</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>745.0706109654338</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6211,67 +6211,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6302,28 +6302,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>711.072954880832</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C28" t="n">
-        <v>542.1367719529251</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D28" t="n">
-        <v>392.0201325405894</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581963</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028589</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028589</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.210845262961</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U28" t="n">
-        <v>1075.210845262961</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V28" t="n">
-        <v>1075.210845262961</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W28" t="n">
-        <v>1075.210845262961</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="X28" t="n">
-        <v>1075.210845262961</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="Y28" t="n">
-        <v>892.7214197110717</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
     <row r="29">
@@ -6454,19 +6454,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805468</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6487,10 +6487,10 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
@@ -6539,28 +6539,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3607.068487499069</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C31" t="n">
-        <v>3607.068487499069</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D31" t="n">
-        <v>3607.068487499069</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E31" t="n">
-        <v>3459.155393916676</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F31" t="n">
-        <v>3459.155393916676</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014293</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>4660.934562929846</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T31" t="n">
-        <v>4437.149147719352</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U31" t="n">
-        <v>4437.149147719352</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V31" t="n">
-        <v>4182.464659513465</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="W31" t="n">
-        <v>4182.464659513465</v>
+        <v>843.7395088768801</v>
       </c>
       <c r="X31" t="n">
-        <v>4009.509531472839</v>
+        <v>836.769640042142</v>
       </c>
       <c r="Y31" t="n">
-        <v>3788.716952329309</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
     <row r="32">
@@ -6679,49 +6679,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6767,37 +6767,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>1206.718781115523</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M33" t="n">
-        <v>1514.038914395485</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N33" t="n">
-        <v>1843.901542059517</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O33" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1340.085404217832</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>1050.956765431391</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>796.2722772255036</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>506.8551071885429</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6925,19 +6925,19 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514085</v>
@@ -6952,22 +6952,22 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
         <v>4262.3578574653</v>
@@ -7013,25 +7013,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3947.448245542222</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>3947.448245542222</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>3947.448245542222</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>3947.448245542222</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>3800.558298044312</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>3632.382976364132</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>3481.964967912076</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4749.779469576119</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T37" t="n">
-        <v>4525.994054365625</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>4236.865415579183</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>4236.865415579183</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>3947.448245542222</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>3947.448245542222</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>3947.448245542222</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7162,40 +7162,40 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7241,13 +7241,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
@@ -7256,19 +7256,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,31 +7350,31 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.210845262961</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765191</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>531.3977182706323</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>531.3977182706323</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>303.4081673726149</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
         <v>97.21709146028584</v>
@@ -7390,70 +7390,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822457</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7478,13 +7478,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
@@ -7493,19 +7493,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>579.068505649155</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>410.1323227212481</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>260.0156833089123</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>112.1025897265192</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
         <v>97.21709146028584</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557903</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V43" t="n">
-        <v>1498.916270557903</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W43" t="n">
-        <v>1209.499100520942</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>981.5095496229249</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>760.7169704793947</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7627,40 +7627,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643324</v>
@@ -7669,7 +7669,7 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7715,13 +7715,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
@@ -7730,19 +7730,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>644.675512255521</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>891.4406401619851</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>324.384017443268</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>155.4478345153611</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>155.4478345153611</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>155.4478345153611</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
         <v>97.21709146028584</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557903</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U46" t="n">
-        <v>1498.916270557903</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V46" t="n">
-        <v>1244.231782352016</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W46" t="n">
-        <v>954.8146123150552</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X46" t="n">
-        <v>726.8250614170379</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y46" t="n">
-        <v>506.0324822735078</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,19 +8531,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050813</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8780,16 +8780,16 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>145.2351313103793</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776738</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445211</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9245,10 +9245,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>234.4116509503155</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9485,7 +9485,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776744</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9722,7 +9722,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>180.0237016735865</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,10 +9734,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445216</v>
@@ -9953,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,19 +10427,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>288.4091825776746</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298197</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>234.411650950316</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23469,22 +23469,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U13" t="n">
-        <v>117.193286010002</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23658,13 +23658,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>33.08849621799476</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23673,7 +23673,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>152.47335591621</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23910,7 +23910,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>93.64429916196846</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>81.2298699930613</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24138,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24177,10 +24177,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>194.1779846150466</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338503</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>128.0274464567047</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,19 +24657,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>140.3375291694992</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>37.92012205572448</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24840,19 +24840,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -24900,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>54.48407862881669</v>
+        <v>218.8094852426464</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25125,13 +25125,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>64.30500338171942</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25323,16 +25323,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>87.83776720882585</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,13 +25371,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25608,16 +25608,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>82.39383318338562</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>14.45548819888901</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>130.6844047393602</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25836,25 +25836,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>87.77261239840674</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26076,10 +26076,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>764342.0273979419</v>
+        <v>764342.0273979418</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>764342.0273979419</v>
+        <v>764342.0273979418</v>
       </c>
     </row>
     <row r="14">
@@ -26316,34 +26316,34 @@
         <v>656833.4158914268</v>
       </c>
       <c r="C2" t="n">
+        <v>656833.4158914265</v>
+      </c>
+      <c r="D2" t="n">
         <v>656833.4158914267</v>
-      </c>
-      <c r="D2" t="n">
-        <v>656833.4158914264</v>
       </c>
       <c r="E2" t="n">
         <v>625646.495580334</v>
       </c>
       <c r="F2" t="n">
-        <v>625646.4955803342</v>
+        <v>625646.4955803341</v>
       </c>
       <c r="G2" t="n">
-        <v>625646.4955803344</v>
+        <v>625646.4955803339</v>
       </c>
       <c r="H2" t="n">
-        <v>625646.4955803342</v>
+        <v>625646.4955803341</v>
       </c>
       <c r="I2" t="n">
         <v>625646.4955803341</v>
       </c>
       <c r="J2" t="n">
-        <v>625646.4955803339</v>
+        <v>625646.4955803341</v>
       </c>
       <c r="K2" t="n">
+        <v>625646.4955803338</v>
+      </c>
+      <c r="L2" t="n">
         <v>625646.4955803341</v>
-      </c>
-      <c r="L2" t="n">
-        <v>625646.4955803343</v>
       </c>
       <c r="M2" t="n">
         <v>625646.4955803342</v>
@@ -26352,10 +26352,10 @@
         <v>625646.4955803341</v>
       </c>
       <c r="O2" t="n">
-        <v>625646.495580334</v>
+        <v>625646.4955803341</v>
       </c>
       <c r="P2" t="n">
-        <v>625646.4955803342</v>
+        <v>625646.4955803341</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
-        <v>5.796129016744089e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26429,37 +26429,37 @@
         <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687065</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687064</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687064</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="L4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="M4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="N4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="O4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="P4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
     </row>
     <row r="5">
@@ -26475,43 +26475,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-181626.4091730515</v>
+        <v>-181626.4091730514</v>
       </c>
       <c r="C6" t="n">
+        <v>408341.4700414926</v>
+      </c>
+      <c r="D6" t="n">
         <v>408341.4700414928</v>
       </c>
-      <c r="D6" t="n">
-        <v>408341.4700414923</v>
-      </c>
       <c r="E6" t="n">
-        <v>-13675.47443214926</v>
+        <v>-14650.06569187114</v>
       </c>
       <c r="F6" t="n">
-        <v>511484.5620447463</v>
+        <v>510509.9707850252</v>
       </c>
       <c r="G6" t="n">
-        <v>511484.5620447471</v>
+        <v>510509.9707850249</v>
       </c>
       <c r="H6" t="n">
-        <v>511484.5620447469</v>
+        <v>510509.9707850252</v>
       </c>
       <c r="I6" t="n">
-        <v>511484.5620447468</v>
+        <v>510509.970785025</v>
       </c>
       <c r="J6" t="n">
-        <v>335061.3428521536</v>
+        <v>334086.7515924323</v>
       </c>
       <c r="K6" t="n">
-        <v>511484.5620447468</v>
+        <v>510509.9707850248</v>
       </c>
       <c r="L6" t="n">
-        <v>511484.5620447471</v>
+        <v>510509.9707850252</v>
       </c>
       <c r="M6" t="n">
-        <v>376683.5468109096</v>
+        <v>375708.955551188</v>
       </c>
       <c r="N6" t="n">
-        <v>511484.5620447468</v>
+        <v>510509.9707850252</v>
       </c>
       <c r="O6" t="n">
-        <v>511484.5620447467</v>
+        <v>510509.9707850252</v>
       </c>
       <c r="P6" t="n">
-        <v>511484.5620447469</v>
+        <v>510509.9707850252</v>
       </c>
     </row>
   </sheetData>
@@ -26737,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541008</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26795,25 +26795,25 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
@@ -26959,28 +26959,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>452.6387412370136</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="E3" t="n">
-        <v>452.6387412370133</v>
-      </c>
-      <c r="F3" t="n">
-        <v>5.684341886080801e-13</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27381,10 +27381,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>185.3254486783245</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>218.8910649275542</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>16.38838743924759</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>193.2687479352328</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27630,10 +27630,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>12.42908554841733</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27678,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>10.9824791725153</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,25 +27776,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>64.16285195963709</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>39.48732836466469</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>45.199959188537</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>98.95375469339484</v>
       </c>
       <c r="Y8" t="n">
-        <v>111.0507855692092</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>52.18148112982598</v>
+        <v>16.75260993681658</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28019,22 +28019,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853697</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29274,7 +29274,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-1.115261047703417e-12</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31694,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443619</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444947</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041491</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565522</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927189</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540889</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104654</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354104</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386727</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127068</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215735</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622984</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724849</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813465</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855529</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710958</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677467</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361494</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
-        <v>105.8669502822384</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196126</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171321</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337674</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892249</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0816769579135182</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,10 +33113,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,10 +33350,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,10 +33587,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,10 +33824,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,10 +34061,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,10 +34298,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,10 +34535,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
@@ -35500,16 +35500,16 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>233.2481640954534</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303333</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109075</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.329650222112</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081122</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349822</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953156</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K15" t="n">
-        <v>415.040675600518</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560246</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980132</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411085</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091987</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556559</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187483</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>483.66935590634</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.556183571462</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091992</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36442,7 +36442,7 @@
         <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>429.2814066296109</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504664</v>
@@ -36454,10 +36454,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36597,28 +36597,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,28 +36834,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,28 +37071,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>537.666887533699</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,22 +37387,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,28 +37545,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,22 +37624,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,28 +37782,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,28 +38019,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>384.9870895382553</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2957836.083645805</v>
+        <v>2962775.346494837</v>
       </c>
     </row>
     <row r="7">
@@ -661,7 +661,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>146.3280615031011</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>150.8400357509149</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>163.4435927426897</v>
+        <v>163.4435927426899</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -901,19 +901,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>102.8816354146828</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -952,13 +952,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>338.2584895448977</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>84.45262105857526</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>84.45262105857543</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -1141,10 +1141,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>60.46179076613092</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>270.7773459850742</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>163.0793702451207</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1299,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>136.128638728132</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1426,13 +1426,13 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1581,7 +1581,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1590,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>205.007482405516</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T22" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>139.1537278750042</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>33.35146980185879</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -2772,16 +2772,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>146.1854691670918</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>143.3158222056519</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2955,16 +2955,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3009,13 +3009,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>95.02525064967696</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>6.900170146390741</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3562,7 +3562,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>57.85017494300117</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3720,16 +3720,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>169.7438101404424</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>14.73664328357051</v>
       </c>
       <c r="W43" t="n">
-        <v>204.1291651532053</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T46" t="n">
-        <v>118.4898845065119</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1591.868758816787</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="C2" t="n">
         <v>1222.906241876376</v>
@@ -4333,10 +4333,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4357,25 +4357,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2549.342968287817</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2330.70830125988</v>
       </c>
       <c r="U2" t="n">
-        <v>2520.971603332393</v>
+        <v>2330.70830125988</v>
       </c>
       <c r="V2" t="n">
-        <v>2520.971603332393</v>
+        <v>1999.645413916309</v>
       </c>
       <c r="W2" t="n">
-        <v>2520.971603332393</v>
+        <v>1999.645413916309</v>
       </c>
       <c r="X2" t="n">
-        <v>2368.607930856721</v>
+        <v>1999.645413916309</v>
       </c>
       <c r="Y2" t="n">
-        <v>1978.468598880909</v>
+        <v>1609.506081940498</v>
       </c>
     </row>
     <row r="3">
@@ -4400,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4412,22 +4412,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245969</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T4" t="n">
-        <v>513.8405610245969</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U4" t="n">
-        <v>513.8405610245969</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="V4" t="n">
-        <v>513.8405610245969</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="W4" t="n">
-        <v>513.8405610245969</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="X4" t="n">
-        <v>513.8405610245969</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="Y4" t="n">
-        <v>513.8405610245969</v>
+        <v>513.8405610245972</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1591.868758816787</v>
+        <v>1271.984870679801</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>903.0223537393897</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>903.0223537393897</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>903.0223537393897</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W5" t="n">
-        <v>2355.473849053679</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="X5" t="n">
-        <v>1982.008090792599</v>
+        <v>1662.124202655613</v>
       </c>
       <c r="Y5" t="n">
-        <v>1591.868758816787</v>
+        <v>1271.984870679801</v>
       </c>
     </row>
     <row r="6">
@@ -4661,10 +4661,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D7" t="n">
-        <v>642.8233063694895</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="E7" t="n">
-        <v>494.9102127870964</v>
+        <v>580.2158906240413</v>
       </c>
       <c r="F7" t="n">
-        <v>348.0202652891861</v>
+        <v>433.3259431261309</v>
       </c>
       <c r="G7" t="n">
         <v>348.0202652891861</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>802.0401021781393</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>433.0775852377275</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177354</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548715</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548715</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548715</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548715</v>
+        <v>2305.013687749267</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548715</v>
+        <v>1952.245032479153</v>
       </c>
       <c r="X8" t="n">
-        <v>2368.607930856721</v>
+        <v>1578.779274218073</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>1188.639942242261</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>563.4023475952011</v>
+        <v>507.3364050629041</v>
       </c>
       <c r="C10" t="n">
-        <v>563.4023475952011</v>
+        <v>507.3364050629041</v>
       </c>
       <c r="D10" t="n">
-        <v>563.4023475952011</v>
+        <v>507.3364050629041</v>
       </c>
       <c r="E10" t="n">
-        <v>415.489254012808</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F10" t="n">
-        <v>268.5993065148977</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -5007,7 +5007,7 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="11">
@@ -5041,16 +5041,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5059,7 +5059,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5077,7 +5077,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
@@ -5123,22 +5123,22 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>796.3635653766202</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1103.683698656582</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>1908.095276920732</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2187.63534213943</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2392.657822921639</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5229,13 +5229,13 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W13" t="n">
         <v>325.2066423583032</v>
@@ -5278,25 +5278,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5412,10 +5412,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
         <v>97.21709146028584</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V16" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W16" t="n">
-        <v>441.900558318119</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>980.8428919792032</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>726.1584037733163</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>436.7412337363557</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
         <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643324</v>
@@ -5776,28 +5776,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5819,13 +5819,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
@@ -5834,16 +5834,16 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>1206.718781115524</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M21" t="n">
         <v>1514.038914395485</v>
       </c>
       <c r="N21" t="n">
-        <v>1843.901542059518</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O21" t="n">
         <v>2123.441607278215</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,16 +5928,16 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T22" t="n">
         <v>1158.436939387592</v>
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
@@ -5992,16 +5992,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6013,28 +6013,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6056,13 +6056,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
@@ -6071,19 +6071,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,28 +6165,28 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="X25" t="n">
         <v>97.21709146028584</v>
@@ -6214,22 +6214,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6250,7 +6250,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6302,19 +6302,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277035</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M27" t="n">
-        <v>1302.911127126629</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N27" t="n">
         <v>2051.878056918008</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>964.1357418247858</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U28" t="n">
-        <v>675.007103038344</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V28" t="n">
-        <v>675.007103038344</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W28" t="n">
-        <v>527.3450129705744</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X28" t="n">
-        <v>527.3450129705744</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="Y28" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6454,7 +6454,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6463,28 +6463,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6496,19 +6496,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6530,37 +6530,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M30" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>434.3285960683721</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C31" t="n">
-        <v>265.3924131404652</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D31" t="n">
-        <v>265.3924131404652</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E31" t="n">
-        <v>265.3924131404652</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
         <v>97.21709146028584</v>
@@ -6624,13 +6624,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V31" t="n">
-        <v>1133.156678913841</v>
+        <v>1402.931168891562</v>
       </c>
       <c r="W31" t="n">
-        <v>843.7395088768801</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="X31" t="n">
-        <v>836.769640042142</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="Y31" t="n">
-        <v>615.9770608986119</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="32">
@@ -6679,52 +6679,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823788</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6776,28 +6776,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6919,37 +6919,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6964,22 +6964,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7025,7 +7025,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7122,19 +7122,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X37" t="n">
         <v>97.21709146028584</v>
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7177,7 +7177,7 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7192,10 +7192,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7207,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>155.6516116047315</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>155.6516116047315</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>155.6516116047315</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>155.6516116047315</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>155.6516116047315</v>
       </c>
       <c r="G40" t="n">
         <v>97.21709146028584</v>
@@ -7368,16 +7368,16 @@
         <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>558.0926555785013</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>337.3000764349712</v>
       </c>
     </row>
     <row r="41">
@@ -7393,25 +7393,25 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514082</v>
@@ -7429,7 +7429,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.627437207829</v>
@@ -7438,22 +7438,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E43" t="n">
         <v>97.21709146028584</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>786.0822064765186</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>531.3977182706318</v>
+        <v>1484.03077229167</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>1194.613602254709</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>966.6240513566914</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>745.8314722131613</v>
       </c>
     </row>
     <row r="44">
@@ -7648,25 +7648,25 @@
         <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7833,22 +7833,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
-        <v>1379.229518531123</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>1090.100879744681</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
         <v>97.21709146028584</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8309,13 +8309,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783519</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,16 +8771,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>145.2351313103793</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -8938,7 +8938,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119847</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9485,7 +9485,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>288.4091825776757</v>
+        <v>288.4091825776746</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9962,10 +9962,10 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229573</v>
       </c>
       <c r="N27" t="n">
-        <v>423.3376789165117</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10366,7 +10366,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714816</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10427,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>33.08849621799476</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23703,13 +23703,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>81.2298699930613</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24177,10 +24177,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T22" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>82.39383318338503</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>192.3581855871784</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24660,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>140.3375291694992</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>75.26883114644289</v>
       </c>
     </row>
     <row r="29">
@@ -24843,16 +24843,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
@@ -24897,13 +24897,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>157.112392674151</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>218.8094852426464</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25362,7 +25362,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>108.6433935203764</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25608,16 +25608,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>82.39383318338562</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25836,25 +25836,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>237.4010000402575</v>
       </c>
       <c r="W43" t="n">
-        <v>82.39383318338565</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26073,10 +26073,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0576765518774</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>764342.0273979419</v>
+        <v>764342.0273979418</v>
       </c>
     </row>
     <row r="7">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>764342.0273979418</v>
+        <v>764342.0273979419</v>
       </c>
     </row>
     <row r="15">
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914268</v>
+        <v>656833.4158914264</v>
       </c>
       <c r="C2" t="n">
+        <v>656833.4158914267</v>
+      </c>
+      <c r="D2" t="n">
         <v>656833.4158914265</v>
       </c>
-      <c r="D2" t="n">
-        <v>656833.4158914267</v>
-      </c>
       <c r="E2" t="n">
-        <v>625646.495580334</v>
+        <v>625646.4955803342</v>
       </c>
       <c r="F2" t="n">
+        <v>625646.4955803342</v>
+      </c>
+      <c r="G2" t="n">
         <v>625646.4955803341</v>
-      </c>
-      <c r="G2" t="n">
-        <v>625646.4955803339</v>
       </c>
       <c r="H2" t="n">
         <v>625646.4955803341</v>
@@ -26340,19 +26340,19 @@
         <v>625646.4955803341</v>
       </c>
       <c r="K2" t="n">
-        <v>625646.4955803338</v>
+        <v>625646.4955803341</v>
       </c>
       <c r="L2" t="n">
+        <v>625646.4955803342</v>
+      </c>
+      <c r="M2" t="n">
         <v>625646.4955803341</v>
       </c>
-      <c r="M2" t="n">
-        <v>625646.4955803342</v>
-      </c>
       <c r="N2" t="n">
-        <v>625646.4955803341</v>
+        <v>625646.495580334</v>
       </c>
       <c r="O2" t="n">
-        <v>625646.4955803341</v>
+        <v>625646.495580334</v>
       </c>
       <c r="P2" t="n">
         <v>625646.4955803341</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.2191925932</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.015233837</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26444,10 +26444,10 @@
         <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="L4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="M4" t="n">
         <v>22174.60758687071</v>
@@ -26487,22 +26487,22 @@
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-181626.4091730514</v>
+        <v>-181626.409173052</v>
       </c>
       <c r="C6" t="n">
+        <v>408341.470041493</v>
+      </c>
+      <c r="D6" t="n">
         <v>408341.4700414926</v>
       </c>
-      <c r="D6" t="n">
-        <v>408341.4700414928</v>
-      </c>
       <c r="E6" t="n">
-        <v>-14650.06569187114</v>
+        <v>-13772.93355812143</v>
       </c>
       <c r="F6" t="n">
-        <v>510509.9707850252</v>
+        <v>511387.1029187748</v>
       </c>
       <c r="G6" t="n">
-        <v>510509.9707850249</v>
+        <v>511387.1029187746</v>
       </c>
       <c r="H6" t="n">
-        <v>510509.9707850252</v>
+        <v>511387.1029187745</v>
       </c>
       <c r="I6" t="n">
-        <v>510509.970785025</v>
+        <v>511387.1029187746</v>
       </c>
       <c r="J6" t="n">
-        <v>334086.7515924323</v>
+        <v>334963.8837261813</v>
       </c>
       <c r="K6" t="n">
-        <v>510509.9707850248</v>
+        <v>511387.1029187746</v>
       </c>
       <c r="L6" t="n">
-        <v>510509.9707850252</v>
+        <v>511387.1029187747</v>
       </c>
       <c r="M6" t="n">
-        <v>375708.955551188</v>
+        <v>376586.0876849376</v>
       </c>
       <c r="N6" t="n">
-        <v>510509.9707850252</v>
+        <v>511387.1029187745</v>
       </c>
       <c r="O6" t="n">
-        <v>510509.9707850252</v>
+        <v>511387.1029187745</v>
       </c>
       <c r="P6" t="n">
-        <v>510509.9707850252</v>
+        <v>511387.1029187746</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26755,22 +26755,22 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541002</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26977,13 +26977,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27426,25 +27426,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>28.08765130587042</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>218.8910649275542</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.38838743924759</v>
+        <v>16.38838743924737</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27621,19 +27621,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>303.9944103270287</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27672,13 +27672,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>10.9824791725153</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27779,7 +27779,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>64.16285195963709</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>82.85718120047548</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27797,7 +27797,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27861,10 +27861,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>113.9539220428406</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27912,13 +27912,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>98.95375469339484</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16.75260993681658</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28019,7 +28019,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>10.30532391843713</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,10 +32639,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32785,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262123</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,7 +35263,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245897</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35491,16 +35491,16 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
@@ -35509,7 +35509,7 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>233.2481640954534</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35658,7 +35658,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081124</v>
       </c>
       <c r="O14" t="n">
         <v>713.1546070951472</v>
@@ -36123,28 +36123,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,22 +36202,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>537.6668875337</v>
+        <v>537.666887533699</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36363,25 +36363,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,13 +36439,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
@@ -36454,7 +36454,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004661</v>
+        <v>720.1247453734237</v>
       </c>
       <c r="N27" t="n">
-        <v>756.5322523145245</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109114</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,16 +37305,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,16 +37393,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
